--- a/resources/templet/paycontract.xlsx
+++ b/resources/templet/paycontract.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,18 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遵义水利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付款方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,11 +87,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京联想科技公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QW-1231-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分三次付清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108912321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱泊车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,103 +526,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2"/>
-    <col min="8" max="8" width="27.75" style="2" customWidth="1"/>
-    <col min="9" max="11" width="16.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="15.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="14" style="2"/>
+    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2"/>
+    <col min="7" max="7" width="27.75" style="2" customWidth="1"/>
+    <col min="8" max="10" width="16.875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1122.1199999999999</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7">
-        <v>1122.1199999999999</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/templet/paycontract.xlsx
+++ b/resources/templet/paycontract.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0108912321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,18 @@
   </si>
   <si>
     <t>爱泊车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京联想控股有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,9 +131,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,13 +218,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,108 +524,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2"/>
-    <col min="7" max="7" width="27.75" style="2" customWidth="1"/>
-    <col min="8" max="10" width="16.875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="36.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="14" style="2"/>
+    <col min="2" max="3" width="20.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2"/>
+    <col min="8" max="8" width="27.75" style="2" customWidth="1"/>
+    <col min="9" max="11" width="16.875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="15.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7">
-        <v>1122.1199999999999</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="N2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
